--- a/biology/Zoologie/Dicamptodon/Dicamptodon.xlsx
+++ b/biology/Zoologie/Dicamptodon/Dicamptodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicamptodon est un genre d'urodèles de la famille des Ambystomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicamptodon est un genre d'urodèles de la famille des Ambystomatidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre espèces de ce genre se rencontrent sur la côte Pacifique de l'Amérique du Nord, au Canada dans le sud-ouest de la Colombie-Britannique et aux États-Unis au Washington, en Oregon, dans le nord de l'Idaho et dans le Nord de la Californie jusqu'au comté de Santa Cruz.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (17 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (17 février 2014) :
 Dicamptodon aterrimus (Cope, 1868)
 Dicamptodon copei Nussbaum, 1970
 Dicamptodon ensatus (Eschscholtz, 1833)
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Strauch, 1870 : Revision der Salamandriden-Gattungen nebst beschreibung einiger neuen und weniger bekannten Arten dieser Familie. Mémoires de l'Académie Impériale des Sciences de St. Pétersbourg, sér. 7, vol. 16, p. 1-110.</t>
         </is>
